--- a/results/mp/logistic/corona/confidence/168/topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -76,121 +79,130 @@
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7876712328767124</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4708994708994709</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4437984496124031</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="C5">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4406779661016949</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>0.8839285714285714</v>
@@ -817,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2818791946308725</v>
+        <v>0.4631782945736434</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8455497382198953</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L7">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2472222222222222</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1349206349206349</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.07238605898123325</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>346</v>
+        <v>215</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,37 +1029,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01553900938815151</v>
+        <v>0.1099195710455764</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3041</v>
+        <v>332</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,37 +1079,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01224105461393597</v>
+        <v>0.01976668826960467</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E12">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="F12">
-        <v>0.5800000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2098</v>
+        <v>3025</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.7948717948717948</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,37 +1129,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0105977108944468</v>
+        <v>0.01463644948064212</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F13">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2334</v>
+        <v>2087</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,28 +1179,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008629142969209649</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>5055</v>
+        <v>2324</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14">
         <v>0.7777777777777778</v>
@@ -1217,37 +1229,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007939028262940616</v>
+        <v>0.009033778476040848</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="E15">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="F15">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3124</v>
+        <v>5046</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005676059193188729</v>
+        <v>0.006548175865294668</v>
       </c>
       <c r="C16">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E16">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="F16">
-        <v>0.3100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>4905</v>
+        <v>4248</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,73 +1321,97 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.005711954304365565</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>122</v>
+      </c>
+      <c r="E17">
+        <v>0.77</v>
+      </c>
+      <c r="F17">
+        <v>0.23</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4874</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7605633802816901</v>
+      </c>
+      <c r="L17">
+        <v>108</v>
+      </c>
+      <c r="M17">
+        <v>108</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="L18">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="L17">
-        <v>36</v>
-      </c>
-      <c r="M17">
-        <v>36</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L18">
-        <v>25</v>
-      </c>
-      <c r="M18">
-        <v>25</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
+    <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1387,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1413,553 +1449,683 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>0.7</v>
       </c>
       <c r="L21">
+        <v>28</v>
+      </c>
+      <c r="M21">
+        <v>28</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.66</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L24">
+        <v>59</v>
+      </c>
+      <c r="M24">
+        <v>59</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>35</v>
       </c>
-      <c r="M21">
-        <v>35</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.6264705882352941</v>
+      </c>
+      <c r="L25">
+        <v>213</v>
+      </c>
+      <c r="M25">
+        <v>213</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.606694560669456</v>
+      </c>
+      <c r="L26">
+        <v>145</v>
+      </c>
+      <c r="M26">
+        <v>145</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
         <v>42</v>
       </c>
-      <c r="K22">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>30</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.6558823529411765</v>
-      </c>
-      <c r="L23">
-        <v>223</v>
-      </c>
-      <c r="M23">
-        <v>223</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.6382252559726962</v>
-      </c>
-      <c r="L24">
-        <v>187</v>
-      </c>
-      <c r="M24">
-        <v>189</v>
-      </c>
-      <c r="N24">
+      <c r="M27">
+        <v>42</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.6</v>
+      </c>
+      <c r="L28">
+        <v>39</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.5986394557823129</v>
+      </c>
+      <c r="L29">
+        <v>176</v>
+      </c>
+      <c r="M29">
+        <v>177</v>
+      </c>
+      <c r="N29">
         <v>0.99</v>
       </c>
-      <c r="O24">
+      <c r="O29">
         <v>0.01000000000000001</v>
       </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L30">
+        <v>49</v>
+      </c>
+      <c r="M30">
+        <v>49</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>45</v>
       </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>39</v>
-      </c>
-      <c r="M25">
-        <v>39</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.5983263598326359</v>
-      </c>
-      <c r="L26">
-        <v>143</v>
-      </c>
-      <c r="M26">
-        <v>143</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>0.5957446808510638</v>
-      </c>
-      <c r="L27">
-        <v>56</v>
-      </c>
-      <c r="M27">
-        <v>56</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.5842696629213483</v>
-      </c>
-      <c r="L28">
-        <v>52</v>
-      </c>
-      <c r="M28">
-        <v>52</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L29">
-        <v>40</v>
-      </c>
-      <c r="M29">
-        <v>40</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>51</v>
-      </c>
-      <c r="K31">
-        <v>0.05301645338208409</v>
-      </c>
-      <c r="L31">
-        <v>29</v>
-      </c>
-      <c r="M31">
-        <v>29</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32">
-        <v>0.04093567251461988</v>
-      </c>
-      <c r="L32">
-        <v>49</v>
-      </c>
-      <c r="M32">
-        <v>52</v>
-      </c>
-      <c r="N32">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O32">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>1148</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.02498048399687744</v>
+        <v>0.05016722408026756</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N33">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1249</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.0244085617724371</v>
+        <v>0.02746693794506612</v>
       </c>
       <c r="L34">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="N34">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="O34">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2598</v>
+        <v>956</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.0220125786163522</v>
+        <v>0.02742299023290759</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="N35">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O35">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1555</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.0163727959697733</v>
+        <v>0.02580140734949179</v>
       </c>
       <c r="L36">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N36">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="O36">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3124</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.01604938271604938</v>
+        <v>0.019140257295262</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="M37">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="N37">
-        <v>0.72</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O37">
-        <v>0.28</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2391</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.01297614064462118</v>
+        <v>0.01894563426688632</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2358</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K39">
-        <v>0.01288810779144698</v>
+        <v>0.01892109500805153</v>
       </c>
       <c r="L39">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="M39">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="N39">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="O39">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>5055</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.01268115942028986</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L40">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N40">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O40">
-        <v>0.3100000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4905</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.01231126596980256</v>
+        <v>0.01828499369482976</v>
       </c>
       <c r="L41">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="N41">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="O41">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>4252</v>
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42">
+        <v>0.01426059777300254</v>
+      </c>
+      <c r="L42">
+        <v>73</v>
+      </c>
+      <c r="M42">
+        <v>119</v>
+      </c>
+      <c r="N42">
+        <v>0.61</v>
+      </c>
+      <c r="O42">
+        <v>0.39</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43">
+        <v>0.01353711790393013</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43">
+        <v>0.62</v>
+      </c>
+      <c r="O43">
+        <v>0.38</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44">
+        <v>0.01209302325581395</v>
+      </c>
+      <c r="L44">
+        <v>52</v>
+      </c>
+      <c r="M44">
+        <v>80</v>
+      </c>
+      <c r="N44">
+        <v>0.65</v>
+      </c>
+      <c r="O44">
+        <v>0.35</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <v>0.01183712121212121</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>56</v>
+      </c>
+      <c r="N45">
+        <v>0.45</v>
+      </c>
+      <c r="O45">
+        <v>0.55</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>0.01148447469162059</v>
+      </c>
+      <c r="L46">
+        <v>27</v>
+      </c>
+      <c r="M46">
+        <v>55</v>
+      </c>
+      <c r="N46">
+        <v>0.49</v>
+      </c>
+      <c r="O46">
+        <v>0.51</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2324</v>
       </c>
     </row>
   </sheetData>
